--- a/bizchat/유지보수/TASK2080/오비즈_롤정보/테스트_사용자_계정v1.1.xlsx
+++ b/bizchat/유지보수/TASK2080/오비즈_롤정보/테스트_사용자_계정v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\project\비즈쳇\diary\유지보수\TASK2080\오비즈_롤정보\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C11EA3F-EB60-4456-8CC2-BE45020D3D30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2432176A-3EED-4662-B729-2197C543AC9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C4004143-A4EA-4A56-B0B4-03ED2C75637D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C4004143-A4EA-4A56-B0B4-03ED2C75637D}"/>
   </bookViews>
   <sheets>
     <sheet name="오비즈사업관계" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
   <si>
     <t>테스트 계정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,10 @@
   </si>
   <si>
     <t>SK플래닛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중계사 Admin(오비즈01)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,6 +595,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,9 +632,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -946,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718949B5-BD56-4445-8CA6-C16DE1F4B551}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -977,25 +981,25 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="18" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="17" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="18" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1018,7 +1022,7 @@
       <c r="G5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="9" t="s">
         <v>61</v>
       </c>
@@ -1028,28 +1032,28 @@
       <c r="K5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="12">
         <v>100</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="21" t="s">
         <v>76</v>
       </c>
       <c r="I6" s="4">
@@ -1066,13 +1070,13 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="21"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="4">
         <v>201</v>
       </c>
@@ -1085,13 +1089,13 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="22"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="4">
         <v>202</v>
       </c>
@@ -1104,19 +1108,19 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="11">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12">
         <v>101</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="21" t="s">
         <v>77</v>
       </c>
       <c r="I9" s="4">
@@ -1133,13 +1137,13 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="21"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="4">
         <v>204</v>
       </c>
@@ -1152,13 +1156,13 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="22"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="4">
         <v>205</v>
       </c>
@@ -1187,6 +1191,10 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="I4:K4"/>
@@ -1199,10 +1207,6 @@
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:G11"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1214,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FB0A47-C9C8-4E71-8B3D-7701E78F4741}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1270,7 +1274,9 @@
       <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>33</v>
